--- a/PCB Workspace_Rev B.xlsx
+++ b/PCB Workspace_Rev B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberyang/Desktop/Pi_Hub_PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF152E95-660C-F449-B88E-D930A6F2333F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C0215E-577E-3540-BD14-A9523ACB3AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{C87DD074-3EF2-C546-96A1-A0478768A3E3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{C87DD074-3EF2-C546-96A1-A0478768A3E3}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC_Rev B" sheetId="17" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="387">
   <si>
     <t xml:space="preserve">Raspbarry Pi </t>
   </si>
@@ -1291,9 +1291,6 @@
     <t>Test points need to be clippable</t>
   </si>
   <si>
-    <t>Change 3.3V MOSFET output fuse protection to 1A (instead of 1.5A)</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -1522,6 +1519,15 @@
   </si>
   <si>
     <t>Power Barrel Connector Jack</t>
+  </si>
+  <si>
+    <t>F3, F6</t>
+  </si>
+  <si>
+    <t>F1,F2,F4,F5</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -3091,7 +3097,7 @@
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="114" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -3644,7 +3650,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>76</v>
@@ -3665,16 +3671,16 @@
       </c>
       <c r="J19" s="47"/>
       <c r="K19" s="47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L19" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M19" s="47" t="s">
         <v>125</v>
       </c>
       <c r="N19" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -3978,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>58</v>
@@ -4926,8 +4932,8 @@
   </sheetPr>
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="137" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4949,7 +4955,7 @@
   <sheetData>
     <row r="2" spans="2:12" s="30" customFormat="1" ht="19" customHeight="1">
       <c r="B2" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -4964,29 +4970,29 @@
     </row>
     <row r="3" spans="2:12" s="29" customFormat="1" ht="14" customHeight="1">
       <c r="B3" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>310</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>311</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>314</v>
-      </c>
       <c r="H3" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="26"/>
@@ -4996,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" s="20">
         <v>3</v>
@@ -5008,10 +5014,10 @@
         <v>89</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" s="42"/>
       <c r="J4" s="36" t="s">
@@ -5027,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D5" s="33">
         <v>3</v>
@@ -5039,10 +5045,10 @@
         <v>97</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="38">
@@ -5058,7 +5064,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" s="20">
         <v>3</v>
@@ -5070,14 +5076,14 @@
         <v>101</v>
       </c>
       <c r="G6" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="21" t="s">
@@ -5101,10 +5107,10 @@
         <v>107</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="38"/>
@@ -5130,10 +5136,10 @@
         <v>113</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="36"/>
@@ -5147,7 +5153,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" s="33">
         <v>9</v>
@@ -5159,10 +5165,10 @@
         <v>117</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="38"/>
@@ -5182,16 +5188,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="36"/>
@@ -5217,10 +5223,10 @@
         <v>127</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="38"/>
@@ -5240,16 +5246,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>75</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="36"/>
@@ -5275,10 +5281,10 @@
         <v>132</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="38"/>
@@ -5304,10 +5310,10 @@
         <v>135</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="36"/>
@@ -5333,10 +5339,10 @@
         <v>138</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="38"/>
@@ -5362,10 +5368,10 @@
         <v>61300211121</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="36"/>
@@ -5379,7 +5385,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>146</v>
+        <v>384</v>
       </c>
       <c r="D17" s="33">
         <v>2</v>
@@ -5391,10 +5397,10 @@
         <v>144</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="38">
@@ -5410,10 +5416,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="D18" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>145</v>
@@ -5422,10 +5428,10 @@
         <v>148</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="36">
@@ -5453,10 +5459,10 @@
         <v>151</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="38" t="s">
@@ -5478,16 +5484,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>156</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="36" t="s">
@@ -5515,10 +5521,10 @@
         <v>162</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="38">
@@ -5546,10 +5552,10 @@
         <v>167</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="36">
@@ -5577,10 +5583,10 @@
         <v>171</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="38"/>
@@ -5606,10 +5612,10 @@
         <v>175</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="36">
@@ -5637,14 +5643,14 @@
         <v>178</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="26" t="s">
@@ -5662,16 +5668,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>182</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="36"/>
@@ -5689,16 +5695,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>185</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="38" t="s">
@@ -5726,10 +5732,10 @@
         <v>191</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="36">
@@ -5757,14 +5763,14 @@
         <v>194</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K29" s="31"/>
       <c r="L29" s="26" t="s">
@@ -5788,10 +5794,10 @@
         <v>198</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="36">
@@ -5807,19 +5813,19 @@
         <v>28</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D31" s="33">
         <v>1</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>52</v>
@@ -5836,19 +5842,19 @@
         <v>29</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D32" s="20">
         <v>1</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>60</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>52</v>
@@ -5865,7 +5871,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D33" s="33">
         <v>1</v>
@@ -5877,10 +5883,10 @@
         <v>75</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="38"/>
@@ -5894,7 +5900,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D34" s="20">
         <v>1</v>
@@ -5906,10 +5912,10 @@
         <v>61300211121</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I34" s="42"/>
       <c r="J34" s="36"/>
@@ -5923,7 +5929,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D35" s="33">
         <v>1</v>
@@ -5935,10 +5941,10 @@
         <v>61300411121</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="38"/>
@@ -5952,7 +5958,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D36" s="20">
         <v>1</v>
@@ -5964,7 +5970,7 @@
         <v>82</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>83</v>
@@ -5981,19 +5987,19 @@
         <v>34</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D37" s="33">
         <v>1</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F37" s="33">
         <v>61300211121</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H37" s="33" t="s">
         <v>83</v>
@@ -6010,7 +6016,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D38" s="20">
         <v>1</v>
@@ -6022,7 +6028,7 @@
         <v>60900213421</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>83</v>
@@ -6083,7 +6089,7 @@
   <dimension ref="B2:E54"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="136" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -6128,7 +6134,7 @@
         <v>255</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="11" customHeight="1">
@@ -6152,7 +6158,7 @@
         <v>258</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="11" customHeight="1">
@@ -6176,7 +6182,7 @@
         <v>261</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="11" customHeight="1">
@@ -6200,7 +6206,7 @@
         <v>255</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="11" customHeight="1">
@@ -6224,7 +6230,7 @@
         <v>258</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="11" customHeight="1">
@@ -6248,7 +6254,7 @@
         <v>261</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="11" customHeight="1">
@@ -6763,10 +6769,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="212" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6774,59 +6780,69 @@
     <col min="1" max="1" width="87.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>382</v>
+      <c r="B11" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6877,7 @@
   <sheetData>
     <row r="2" spans="2:12" s="30" customFormat="1" ht="19" customHeight="1">
       <c r="B2" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -6876,29 +6892,29 @@
     </row>
     <row r="3" spans="2:12" s="29" customFormat="1" ht="14" customHeight="1">
       <c r="B3" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>310</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>311</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>314</v>
-      </c>
       <c r="H3" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="26"/>
@@ -6908,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" s="20">
         <v>3</v>
@@ -6920,10 +6936,10 @@
         <v>89</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" s="42"/>
       <c r="J4" s="36" t="s">
@@ -6939,7 +6955,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D5" s="33">
         <v>3</v>
@@ -6951,10 +6967,10 @@
         <v>97</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="38">
@@ -6970,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" s="20">
         <v>3</v>
@@ -6982,14 +6998,14 @@
         <v>101</v>
       </c>
       <c r="G6" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="21" t="s">
@@ -7013,10 +7029,10 @@
         <v>107</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="38"/>
@@ -7042,10 +7058,10 @@
         <v>113</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="36"/>
@@ -7059,7 +7075,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" s="33">
         <v>9</v>
@@ -7071,10 +7087,10 @@
         <v>117</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="38"/>
@@ -7094,16 +7110,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>122</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="36"/>
@@ -7129,10 +7145,10 @@
         <v>127</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="38"/>
@@ -7152,16 +7168,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>75</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="36"/>
@@ -7187,10 +7203,10 @@
         <v>132</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="38"/>
@@ -7216,10 +7232,10 @@
         <v>135</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="36"/>
@@ -7245,10 +7261,10 @@
         <v>138</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="38"/>
@@ -7274,10 +7290,10 @@
         <v>61300211121</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="36"/>
@@ -7303,10 +7319,10 @@
         <v>144</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="38">
@@ -7334,10 +7350,10 @@
         <v>148</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="36">
@@ -7365,10 +7381,10 @@
         <v>151</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="38" t="s">
@@ -7390,16 +7406,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>156</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="36" t="s">
@@ -7427,10 +7443,10 @@
         <v>162</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="38">
@@ -7458,10 +7474,10 @@
         <v>167</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="36">
@@ -7489,10 +7505,10 @@
         <v>171</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="38"/>
@@ -7518,10 +7534,10 @@
         <v>175</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="36">
@@ -7549,14 +7565,14 @@
         <v>178</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="26" t="s">
@@ -7574,16 +7590,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>182</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="36"/>
@@ -7601,16 +7617,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>185</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="38" t="s">
@@ -7638,10 +7654,10 @@
         <v>191</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="36">
@@ -7669,14 +7685,14 @@
         <v>194</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K29" s="31"/>
       <c r="L29" s="26" t="s">
@@ -7700,10 +7716,10 @@
         <v>198</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="36">
@@ -7719,19 +7735,19 @@
         <v>28</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D31" s="33">
         <v>1</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>52</v>
@@ -7748,19 +7764,19 @@
         <v>29</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D32" s="20">
         <v>1</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>60</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>52</v>
@@ -7777,7 +7793,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D33" s="33">
         <v>1</v>
@@ -7789,10 +7805,10 @@
         <v>75</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="38"/>
@@ -7806,7 +7822,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D34" s="20">
         <v>1</v>
@@ -7818,10 +7834,10 @@
         <v>61300211121</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I34" s="42"/>
       <c r="J34" s="36"/>
@@ -7835,7 +7851,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D35" s="33">
         <v>1</v>
@@ -7847,10 +7863,10 @@
         <v>61300411121</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="38"/>
@@ -7864,7 +7880,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D36" s="20">
         <v>1</v>
@@ -7876,7 +7892,7 @@
         <v>82</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>83</v>
@@ -7893,19 +7909,19 @@
         <v>34</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D37" s="33">
         <v>1</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F37" s="33">
         <v>61300211121</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H37" s="33" t="s">
         <v>83</v>
@@ -7922,7 +7938,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D38" s="20">
         <v>1</v>
@@ -7934,7 +7950,7 @@
         <v>60900213421</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>83</v>
@@ -10162,19 +10178,19 @@
         <v>210</v>
       </c>
       <c r="C14" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="E14" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="F14" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="G14" s="45" t="s">
         <v>372</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:10">
